--- a/results/2018年第4季.xlsx
+++ b/results/2018年第4季.xlsx
@@ -1113,12 +1113,12 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>84,841</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>2,832,675</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>25,854,493</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -2537,42 +2537,42 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,624,315</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>678,265</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>147,000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>159,275</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>603,844</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-65,473</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-254,339</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>553,724</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -3317,12 +3317,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>104,219,368</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>12,487,700</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -4585,22 +4585,22 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>15,426,599</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-12,638,262</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-2,572,042</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>2,681,281</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -6613,22 +6613,22 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>2,664,078</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-1,755,540</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-866,919</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>990,468</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -6638,22 +6638,22 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>31,907,296</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>47,155,759</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
